--- a/biology/Botanique/Tressot/Tressot.xlsx
+++ b/biology/Botanique/Tressot/Tressot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le tressot N[1] est un cépage français.
+Le tressot N est un cépage français.
 </t>
         </is>
       </c>
@@ -514,11 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Géographique
-Il est cultivé depuis très longtemps dans l'Yonne, dans le vignoble de Bourgogne. Sa culture exclusive dans cette région a conduit à penser qu'il en est originaire. Toutefois ses parents étant originaires du Sud-Ouest et ayant laissé de nombreux descendants sur la route de Saint-Jacques-de-Compostelle, du Sud-Ouest à la Bourgogne, rien ne peut le confirmer pour le moment.
+          <t>Géographique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est cultivé depuis très longtemps dans l'Yonne, dans le vignoble de Bourgogne. Sa culture exclusive dans cette région a conduit à penser qu'il en est originaire. Toutefois ses parents étant originaires du Sud-Ouest et ayant laissé de nombreux descendants sur la route de Saint-Jacques-de-Compostelle, du Sud-Ouest à la Bourgogne, rien ne peut le confirmer pour le moment.
 Il est devenu très rare. Sa surface était de moins d'un demi-hectare entre 1979 et 1994[a 1].
-Génétique
-Des analyses génétiques publiées en septembre 2012 ont montré qu'il serait issu du métissage intra spécifique entre le Prunelard N et le Petit Verdot N[2].
 </t>
         </is>
       </c>
@@ -544,10 +559,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Génétique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des analyses génétiques publiées en septembre 2012 ont montré qu'il serait issu du métissage intra spécifique entre le Prunelard N et le Petit Verdot N.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tressot</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tressot</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jeune rameau est très velu. Les jeunes feuilles sont vertes à bordure dorée.
 Les feuilles adultes sont quinquelobées à sinus pétiolaire fermé à lobes recouvrants. Les sinus latéraux sont profond, parfois avec une dent. Les dents sont courtes. Le limbe est tourmenté, gaufré.
@@ -556,31 +610,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Tressot</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Tressot</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un cépage fertile conduit en taille longue qui nécessite un palissage. Il est sensible surtout à l'oïdium, moins au mildiou ou à la pourriture grise.
 Sa vinification donne un vin coloré, à bon taux alcoolique et bien structuré. Il est essentiellement vendu assemblé.
@@ -588,31 +644,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Tressot</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Tressot</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
